--- a/document/mysql.xlsx
+++ b/document/mysql.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="教师表" sheetId="1" r:id="rId1"/>
+    <sheet name="在校生情况表" sheetId="2" r:id="rId2"/>
+    <sheet name="招生表-3" sheetId="3" r:id="rId3"/>
+    <sheet name="就业表-3" sheetId="4" r:id="rId4"/>
+    <sheet name="博士毕业信息表" sheetId="5" r:id="rId5"/>
+    <sheet name="科研成果" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="185">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +167,555 @@
   </si>
   <si>
     <t>教师表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校生情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_CurStu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段属性</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在校人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDENTIFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生身份('专业硕士','学术硕士','博士')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科代码</t>
+  </si>
+  <si>
+    <t>学科代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报考人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录取人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博连读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接攻博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>985高校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他211高校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他院校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_AdmissionPHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士招生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术硕士招生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_AdmissionMAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum('SPC','MAS','PHD')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推免生总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本校推免生数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>985和其他211推免生数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自985高校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自本校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自其他211高校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自其他院校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业硕士招生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_AdmissionSPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业领域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进站人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出国人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非派遣就业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活就业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士就业表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_EmpPHD</t>
+  </si>
+  <si>
+    <t>学术硕士就业表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_EmpMAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授予学位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业硕士就业表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z_EmpSPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSCD_NUM</t>
+  </si>
+  <si>
+    <t>CSCD论文数</t>
+  </si>
+  <si>
+    <t>CSSCI_NUM</t>
+  </si>
+  <si>
+    <t>CSSCI论文数</t>
+  </si>
+  <si>
+    <t>EI_NUM</t>
+  </si>
+  <si>
+    <t>EI论文数</t>
+  </si>
+  <si>
+    <t>SCI_NUM</t>
+  </si>
+  <si>
+    <t>SCI论文数</t>
+  </si>
+  <si>
+    <t>SSCI_NUM</t>
+  </si>
+  <si>
+    <t>SSCI论文数</t>
+  </si>
+  <si>
+    <t>GRA_NUM</t>
+  </si>
+  <si>
+    <t>毕业生数</t>
+  </si>
+  <si>
+    <t>GRA_YEAR</t>
+  </si>
+  <si>
+    <t>毕业年份</t>
+  </si>
+  <si>
+    <t>enum('3','3.5-4','4.5-5','5.5-6','6.5及以上')</t>
+  </si>
+  <si>
+    <t>SCHYEARS</t>
+  </si>
+  <si>
+    <t>学习年限('3','3.5-4','4.5-5','5.5-6','6.5及以上')</t>
+  </si>
+  <si>
+    <t>DEGERR_NUM</t>
+  </si>
+  <si>
+    <t>授学位总数</t>
+  </si>
+  <si>
+    <t>z_DocGraInfo</t>
+  </si>
+  <si>
+    <t>博士毕业信息表</t>
+  </si>
+  <si>
+    <t>ACHIEVEMENTS_YEAR</t>
+  </si>
+  <si>
+    <t>AWARDS_NUM</t>
+  </si>
+  <si>
+    <t>省部级科研获奖数</t>
+  </si>
+  <si>
+    <t>PATENT_NUM</t>
+  </si>
+  <si>
+    <t>授权专利数</t>
+  </si>
+  <si>
+    <t>PUBLISH_NUM</t>
+  </si>
+  <si>
+    <t>出版专著数</t>
+  </si>
+  <si>
+    <t>ERQU_NUM</t>
+  </si>
+  <si>
+    <t>二区论文数</t>
+  </si>
+  <si>
+    <t>YIQU_NUM</t>
+  </si>
+  <si>
+    <t>一区论文数</t>
+  </si>
+  <si>
+    <t>PAPER_NUM</t>
+  </si>
+  <si>
+    <t>论文总数</t>
+  </si>
+  <si>
+    <t>z_AchievementSPC</t>
+  </si>
+  <si>
+    <t>专硕科研成果</t>
+  </si>
+  <si>
+    <t>z_AchievementsMAS</t>
+  </si>
+  <si>
+    <t>学硕科研成果</t>
+  </si>
+  <si>
+    <t>z_AchievementsPHD</t>
+  </si>
+  <si>
+    <t>博士科研成果</t>
+  </si>
+  <si>
+    <t>学科代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业领域代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASTERTOPHD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPHD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F985_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOCAL_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F211_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTHER_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECLOCAL_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REC985211_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F985_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOCAL_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTHER_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STU_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABROAD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINGXIANG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSEND_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHERSIG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEGREE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABROAD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINGXIANG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSEND_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTHERSIG_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABROAD_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSEND_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECLOCAL_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F985_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOCAL_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTHER_NUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +740,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -211,15 +773,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,4 +1232,1541 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
 </file>